--- a/data.xlsx
+++ b/data.xlsx
@@ -390,22 +390,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="50" customWidth="1" min="1" max="1"/>
-    <col width="50" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="50" customWidth="1" min="4" max="4"/>
-    <col width="50" customWidth="1" min="5" max="5"/>
-    <col width="50" customWidth="1" min="6" max="6"/>
-    <col width="50" customWidth="1" min="7" max="7"/>
-    <col width="50" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -449,46 +449,39 @@
           <t>Data de nastere</t>
         </is>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Rrares</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ETTI</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>423</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>rrares77@gmail.com</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>nu vreau sa o dau</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0123456789</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>29 FEBRUARIE :( 2000</t>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>e</t>
         </is>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -390,13 +390,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="20" customWidth="1" min="2" max="2"/>
@@ -485,6 +485,48 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>RARES</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ETTI</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>RR.GMAIL</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>ACASA</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>000000000</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -396,7 +396,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="20" customWidth="1" min="2" max="2"/>
@@ -488,12 +488,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RARES</t>
+          <t>Rares</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ETTI</t>
+          <t>Etti</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -503,22 +503,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>423</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>RR.GMAIL</t>
+          <t>rrares53@gmail.com</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ACASA</t>
+          <t>Sector3</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>000000000</t>
+          <t>0739876589</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
